--- a/biology/Médecine/Théodore_Fraenkel/Théodore_Fraenkel.xlsx
+++ b/biology/Médecine/Théodore_Fraenkel/Théodore_Fraenkel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Fraenkel</t>
+          <t>Théodore_Fraenkel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Théodore Fraenkel est un écrivain et médecin français, né le 21 avril 1896 à Paris 14e, ville où il est mort le 25 janvier 1964 dans le 10e arrondissement[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Théodore Fraenkel est un écrivain et médecin français, né le 21 avril 1896 à Paris 14e, ville où il est mort le 25 janvier 1964 dans le 10e arrondissement. 
 Dadaïste puis surréaliste de 1918 à 1932, il fut un ami d'André Breton.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Fraenkel</t>
+          <t>Théodore_Fraenkel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né de parents russes d'Odessa[2] émigrés à Paris en 1890, Théodore Fraenkel obtient la nationalité française en 1904. En 1907, il entre au collège Chaptal et rencontre André Breton. Élèves dans la même classe en 1910, partageant la même passion pour la poésie, ils fondent un éphémère Club des Sophistes. Après le baccalauréat, Fraenkel entre en classe préparatoire au PCN (pour Physique, Chimie et sciences Naturelles). Autant par amitié que par défi envers ses parents, Breton le suit à la Faculté de médecine.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né de parents russes d'Odessa émigrés à Paris en 1890, Théodore Fraenkel obtient la nationalité française en 1904. En 1907, il entre au collège Chaptal et rencontre André Breton. Élèves dans la même classe en 1910, partageant la même passion pour la poésie, ils fondent un éphémère Club des Sophistes. Après le baccalauréat, Fraenkel entre en classe préparatoire au PCN (pour Physique, Chimie et sciences Naturelles). Autant par amitié que par défi envers ses parents, Breton le suit à la Faculté de médecine.
 En 1915, après avoir fait ses classes à Landerneau (Finistère), Fraenkel est envoyé à Nantes, en octobre, dans la 22e section d'infirmiers militaires. Il y retrouve Breton et fait la connaissance d'un soldat en convalescence Jacques Vaché. Ce dernier prend Fraenkel pour modèle de son personnage Théodore Letzinski dans sa nouvelle Le Sanglant symbole : « Il était de ceux dont on dit : il ira loin. Son profil slave et sa parole imprégnée du charme de même marque étaient bien connus dans les milieux de la Pensée Libre. »
 Promu médecin auxiliaire, Fraenkel est envoyé à Chaumont, puis en forêt d'Argonne. De retour à Paris, au début de l'année 1917, il envoie à Pierre Albert-Birot un poème qu'il signe Jean Cocteau, Restaurant de nuit, qui paraît dans la revue SIC : en acrostiche, on peut lire Pauvre Birot.
 Début juillet, il est envoyé à Odessa avec une mission militaire chirurgicale. La Révolution d'Octobre écourte la mission. Revenu à Paris en mai 1918, Breton lui présente Louis Aragon. Mais Fraenkel est affecté au 77e régiment d'infanterie à Verdun, puis intégré aux troupes d'occupation de la Sarre, où il retrouve Aragon. Après sa démobilisation, il termine ses études de médecine et est nommé externe des hôpitaux.
@@ -528,7 +542,7 @@
 Il est l'un des signataires du Manifeste des 121 sur le droit d'insoumission dans la guerre d'Algérie, paru le 6 septembre 1960.
 Le poète Robert Desnos, dont il était l'ami intime, l'avait désigné comme son légataire universel.
 Gravement hypertendu, il néglige de se soigner et meurt d'une hémorragie cérébrale à l'hôpital Lariboisière (il y a dirigé le laboratoire d'analyses). Il est enterré sans témoin dans la fosse commune du cimetière de Thiais (Val-de-Marne), selon ses vœux.
-La plupart des lettres adressées à Breton, entre 1911 et 1922, ont disparu[3].
+La plupart des lettres adressées à Breton, entre 1911 et 1922, ont disparu.
 </t>
         </is>
       </c>
